--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
+      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>373</v>
       </c>
@@ -532,7 +600,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes are l***** in the opening tag (ex: &lt;img width="50"&gt;)</t>
+          <t>Tag Attributes are l***** in the opening tag</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>374</v>
       </c>
@@ -561,7 +629,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes are located in the ***** tag (ex: &lt;img width="50"&gt;)</t>
+          <t>Tag Attributes are located in the ***** tag</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>375</v>
       </c>
@@ -590,7 +658,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes are located in the opening ***** (ex: &lt;img width="50"&gt;)</t>
+          <t>Tag Attributes are located in the opening *****</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>376</v>
       </c>
@@ -619,7 +687,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes u**** consists of a key-value pairs (ex: key="value")</t>
+          <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -634,7 +702,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>377</v>
       </c>
@@ -648,7 +716,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes usually consists of a *****-***** pairs (ex: key="value")</t>
+          <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -663,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>378</v>
       </c>
@@ -677,7 +745,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes usually consists of a key-value p***** (ex: key="value")</t>
+          <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -691,7 +759,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>379</v>
       </c>
@@ -719,7 +787,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>380</v>
       </c>
@@ -747,7 +815,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>381</v>
       </c>
@@ -761,7 +829,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tag Attributes ***** should be enclosed in quotation marks </t>
+          <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -775,7 +843,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>382</v>
       </c>
@@ -789,7 +857,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tag Attributes values should be e***** in quotation marks </t>
+          <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -803,7 +871,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>383</v>
       </c>
@@ -817,7 +885,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tag Attributes values should be enclosed in ***** marks </t>
+          <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -831,7 +899,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>384</v>
       </c>
@@ -845,7 +913,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Tag Attributes values should be enclosed in quotation *****</t>
+          <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -859,10 +927,233 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
+    <row customHeight="1" ht="27.6" r="14">
+      <c r="A14" t="n">
+        <v>396</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15">
+      <c r="A15" t="n">
+        <v>397</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>quotes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="16">
+      <c r="A16" t="n">
+        <v>398</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>enclosed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="17">
+      <c r="A17" t="n">
+        <v>399</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="18">
+      <c r="A18" t="n">
+        <v>400</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>quotes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="19">
+      <c r="A19" t="n">
+        <v>401</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="20">
+      <c r="A20" t="n">
+        <v>402</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="21">
+      <c r="A21" t="n">
+        <v>403</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -874,7 +1165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -886,7 +1177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -897,7 +1188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
-      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>373</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>374</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>375</v>
       </c>
@@ -673,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>376</v>
       </c>
@@ -702,7 +634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>377</v>
       </c>
@@ -731,7 +663,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>378</v>
       </c>
@@ -759,7 +691,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>379</v>
       </c>
@@ -787,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>380</v>
       </c>
@@ -815,7 +747,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>381</v>
       </c>
@@ -843,7 +775,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>382</v>
       </c>
@@ -871,7 +803,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>383</v>
       </c>
@@ -899,7 +831,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>384</v>
       </c>
@@ -927,7 +859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>396</v>
       </c>
@@ -955,7 +887,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>397</v>
       </c>
@@ -983,7 +915,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>398</v>
       </c>
@@ -1011,7 +943,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>399</v>
       </c>
@@ -1039,7 +971,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>400</v>
       </c>
@@ -1067,7 +999,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" t="n">
         <v>401</v>
       </c>
@@ -1095,7 +1027,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>402</v>
       </c>
@@ -1123,7 +1055,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>403</v>
       </c>
@@ -1151,9 +1083,10 @@
         </is>
       </c>
     </row>
+    <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1165,7 +1098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1177,7 +1110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1188,7 +1121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
+      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>373</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>374</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>375</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>376</v>
       </c>
@@ -634,7 +702,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>377</v>
       </c>
@@ -663,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>378</v>
       </c>
@@ -691,7 +759,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>379</v>
       </c>
@@ -719,7 +787,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>380</v>
       </c>
@@ -747,7 +815,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>381</v>
       </c>
@@ -775,7 +843,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>382</v>
       </c>
@@ -803,7 +871,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>383</v>
       </c>
@@ -831,7 +899,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>384</v>
       </c>
@@ -859,7 +927,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>396</v>
       </c>
@@ -887,7 +955,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>397</v>
       </c>
@@ -915,7 +983,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>398</v>
       </c>
@@ -943,7 +1011,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>399</v>
       </c>
@@ -971,7 +1039,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>400</v>
       </c>
@@ -999,7 +1067,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" t="n">
         <v>401</v>
       </c>
@@ -1027,7 +1095,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>402</v>
       </c>
@@ -1055,7 +1123,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>403</v>
       </c>
@@ -1083,10 +1151,9 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1098,7 +1165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1110,7 +1177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1121,7 +1188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,161 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Tag Attributes are l***** in the opening tag</t>
+  </si>
+  <si>
+    <t>located</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>Tag Attributes are located in the ***** tag</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>Tag Attributes are located in the opening *****</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
+  </si>
+  <si>
+    <t>usually</t>
+  </si>
+  <si>
+    <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
+  </si>
+  <si>
+    <t>key-value</t>
+  </si>
+  <si>
+    <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
+  </si>
+  <si>
+    <t>pairs</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B***** Tag Attribute is without value (ex: checked, required)</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
+  </si>
+  <si>
+    <t>enclosed</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
+  </si>
+  <si>
+    <t>quotes</t>
+  </si>
+  <si>
+    <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
+  </si>
+  <si>
+    <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
+  </si>
+  <si>
+    <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +304,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,627 +621,453 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
+      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>373</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes are l***** in the opening tag</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>located</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>374</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes are located in the ***** tag</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>opening</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>375</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes are located in the opening *****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>tag</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>376</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>usually</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>377</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>key-value</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>378</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>pairs</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>379</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>B***** Tag Attribute is without value (ex: checked, required)</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>380</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>381</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>382</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>enclosed</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>383</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>quotation</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>384</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>marks</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>396</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>double</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>397</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>quotes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="27.6" customHeight="1">
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="16" spans="1:7">
       <c r="A16" t="n">
         <v>398</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>enclosed</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="27.6" customHeight="1">
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="17" spans="1:7">
       <c r="A17" t="n">
         <v>399</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="27.6" customHeight="1">
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" t="n">
         <v>400</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>quotes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="27.6" customHeight="1">
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" t="n">
         <v>401</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="27.6" customHeight="1">
+      <c r="C19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>402</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="27.6" customHeight="1">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="21" spans="1:7">
       <c r="A21" t="n">
         <v>403</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="22"/>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1098,7 +1079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1110,7 +1091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1121,7 +1102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,161 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Tag Attributes are l***** in the opening tag</t>
-  </si>
-  <si>
-    <t>located</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>Tag Attributes are located in the ***** tag</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>Tag Attributes are located in the opening *****</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
-  </si>
-  <si>
-    <t>usually</t>
-  </si>
-  <si>
-    <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
-  </si>
-  <si>
-    <t>key-value</t>
-  </si>
-  <si>
-    <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
-  </si>
-  <si>
-    <t>pairs</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B***** Tag Attribute is without value (ex: checked, required)</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
-  </si>
-  <si>
-    <t>enclosed</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
-  </si>
-  <si>
-    <t>quotation</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
-  </si>
-  <si>
-    <t>marks</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
-  </si>
-  <si>
-    <t>quotes</t>
-  </si>
-  <si>
-    <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
-  </si>
-  <si>
-    <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
-  </si>
-  <si>
-    <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -304,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -621,453 +466,627 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
-      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>373</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes are l***** in the opening tag</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>located</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>374</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes are located in the ***** tag</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>opening</t>
+        </is>
       </c>
       <c r="F3" s="9" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>375</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes are located in the opening *****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>376</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>377</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>key-value</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>378</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>379</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>B***** Tag Attribute is without value (ex: checked, required)</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>380</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>381</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>382</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>enclosed</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>383</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>quotation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>384</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>marks</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>396</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>397</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>quotes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>398</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="17" spans="1:7">
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>enclosed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>399</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>400</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>quotes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" t="n">
         <v>401</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>402</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="21" spans="1:7">
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>403</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7"/>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1079,7 +1098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1091,7 +1110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1102,7 +1121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
+      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>373</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>374</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>375</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>376</v>
       </c>
@@ -634,7 +702,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>377</v>
       </c>
@@ -663,7 +731,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>378</v>
       </c>
@@ -691,7 +759,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>379</v>
       </c>
@@ -719,7 +787,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>380</v>
       </c>
@@ -747,7 +815,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>381</v>
       </c>
@@ -775,7 +843,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>382</v>
       </c>
@@ -803,7 +871,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>383</v>
       </c>
@@ -831,7 +899,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>384</v>
       </c>
@@ -859,7 +927,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>396</v>
       </c>
@@ -887,7 +955,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>397</v>
       </c>
@@ -915,7 +983,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>398</v>
       </c>
@@ -943,7 +1011,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>399</v>
       </c>
@@ -971,7 +1039,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>400</v>
       </c>
@@ -999,7 +1067,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" t="n">
         <v>401</v>
       </c>
@@ -1027,7 +1095,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>402</v>
       </c>
@@ -1055,7 +1123,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>403</v>
       </c>
@@ -1086,7 +1154,7 @@
     <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1098,7 +1166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1110,7 +1178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1121,7 +1189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="1"/>
-      <selection activeCell="D11" pane="bottomLeft" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>373</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>374</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>375</v>
       </c>
@@ -673,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>376</v>
       </c>
@@ -702,7 +634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>377</v>
       </c>
@@ -731,7 +663,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>378</v>
       </c>
@@ -759,7 +691,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>379</v>
       </c>
@@ -787,7 +719,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>380</v>
       </c>
@@ -815,7 +747,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>381</v>
       </c>
@@ -843,7 +775,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>382</v>
       </c>
@@ -871,7 +803,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>383</v>
       </c>
@@ -899,7 +831,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>384</v>
       </c>
@@ -927,7 +859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>396</v>
       </c>
@@ -955,7 +887,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>397</v>
       </c>
@@ -983,7 +915,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>398</v>
       </c>
@@ -1011,7 +943,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>399</v>
       </c>
@@ -1039,7 +971,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>400</v>
       </c>
@@ -1067,7 +999,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" t="n">
         <v>401</v>
       </c>
@@ -1095,7 +1027,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>402</v>
       </c>
@@ -1123,7 +1055,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>403</v>
       </c>
@@ -1154,7 +1086,7 @@
     <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1166,7 +1098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1178,7 +1110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1189,7 +1121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1083,7 +1151,6 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1151,6 +1083,7 @@
         </is>
       </c>
     </row>
+    <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1087,6 +1155,7 @@
       </c>
     </row>
     <row r="22"/>
+    <row r="23"/>
     <row r="24">
       <c r="E24" s="13" t="inlineStr"/>
     </row>

--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1155,7 +1087,6 @@
       </c>
     </row>
     <row r="22"/>
-    <row r="23"/>
     <row r="24">
       <c r="E24" s="13" t="inlineStr"/>
     </row>

--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,161 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Tag Attributes are l***** in the opening tag</t>
+  </si>
+  <si>
+    <t>located</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>Tag Attributes are located in the ***** tag</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>Tag Attributes are located in the opening *****</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
+  </si>
+  <si>
+    <t>usually</t>
+  </si>
+  <si>
+    <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
+  </si>
+  <si>
+    <t>key-value</t>
+  </si>
+  <si>
+    <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
+  </si>
+  <si>
+    <t>pairs</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B***** Tag Attribute is without value (ex: checked, required)</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
+  </si>
+  <si>
+    <t>enclosed</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
+  </si>
+  <si>
+    <t>quotes</t>
+  </si>
+  <si>
+    <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
+  </si>
+  <si>
+    <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
+  </si>
+  <si>
+    <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,54 +304,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -469,630 +624,456 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="1"/>
+      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>373</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes are l***** in the opening tag</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>located</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>374</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes are located in the ***** tag</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>opening</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>375</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes are located in the opening *****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>tag</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>376</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>usually</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>377</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>key-value</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>378</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>pairs</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="27.6" customHeight="1">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>379</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>B***** Tag Attribute is without value (ex: checked, required)</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>380</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>381</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>382</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>enclosed</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>383</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>quotation</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>384</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>marks</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>396</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>double</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>397</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>quotes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="27.6" customHeight="1">
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="16" spans="1:7">
       <c r="A16" t="n">
         <v>398</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>enclosed</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="27.6" customHeight="1">
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="17" spans="1:7">
       <c r="A17" t="n">
         <v>399</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="27.6" customHeight="1">
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" t="n">
         <v>400</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>quotes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="27.6" customHeight="1">
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" t="n">
         <v>401</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="27.6" customHeight="1">
+      <c r="C19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>402</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="27.6" customHeight="1">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="21" spans="1:7">
       <c r="A21" t="n">
         <v>403</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="24">
-      <c r="E24" s="13" t="inlineStr"/>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7"/>
+    <row r="24" spans="1:7">
+      <c r="E24" s="13" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1104,7 +1085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1116,7 +1097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1127,7 +1108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,161 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Tag Attributes are l***** in the opening tag</t>
-  </si>
-  <si>
-    <t>located</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>Tag Attributes are located in the ***** tag</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>Tag Attributes are located in the opening *****</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
-  </si>
-  <si>
-    <t>usually</t>
-  </si>
-  <si>
-    <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
-  </si>
-  <si>
-    <t>key-value</t>
-  </si>
-  <si>
-    <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
-  </si>
-  <si>
-    <t>pairs</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B***** Tag Attribute is without value (ex: checked, required)</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
-  </si>
-  <si>
-    <t>enclosed</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
-  </si>
-  <si>
-    <t>quotation</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
-  </si>
-  <si>
-    <t>marks</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
-  </si>
-  <si>
-    <t>quotes</t>
-  </si>
-  <si>
-    <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
-  </si>
-  <si>
-    <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
-  </si>
-  <si>
-    <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -304,54 +149,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -624,456 +469,630 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="1"/>
-      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>373</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes are l***** in the opening tag</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>located</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>374</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes are located in the ***** tag</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>opening</t>
+        </is>
       </c>
       <c r="F3" s="9" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>375</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes are located in the opening *****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>376</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes u**** consists of a key-value pairs (ex: width="50")</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>377</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>key-value</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>378</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>379</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>B***** Tag Attribute is without value (ex: checked, required)</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>380</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Boolean Tag Attribute is without ***** (ex: checked, required)</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>381</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>382</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>enclosed</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>383</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>quotation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>384</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>marks</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>396</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation marks (usually by d**** quotes)</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>397</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>quotes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>398</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="17" spans="1:7">
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>enclosed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>399</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>400</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>quotes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" t="n">
         <v>401</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>402</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="21" spans="1:7">
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>403</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7"/>
-    <row r="24" spans="1:7">
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="24">
       <c r="E24" s="13" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1085,7 +1104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1097,7 +1116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1108,7 +1127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Attributes/Basic.xlsx
+++ b/Questions/Programming Language/Html/Attributes/Basic.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +603,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes are l***** in the opening tag</t>
+          <t>T******Attributes are l******* in the opening tag</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -564,7 +632,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes are located in the ***** tag</t>
+          <t>T******Attributes are located in the ********* tag</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -593,7 +661,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes are located in the opening *****</t>
+          <t>Tag Attributes are located in the opening ***</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -651,7 +719,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes usually consists of a *****-***** pairs (ex: width="50")</t>
+          <t>T********Attributes usually consists of a *********-***** pairs (ex: width="50")</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -680,7 +748,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Tag Attributes usually consists of a key-value p***** (ex: width="50")</t>
+          <t>Tag Attributes usually consists of a key-value p**** (ex: width="50")</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -708,7 +776,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>B***** Tag Attribute is without value (ex: checked, required)</t>
+          <t>B********** Tag Attribute is without value (ex: checked, required)</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -764,7 +832,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tag Attributes *****s should be enclosed in quotation marks </t>
+          <t xml:space="preserve">T*****Attributes *****s should be enclosed in quotation marks </t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -792,7 +860,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>Tag Attributes values should be e***** in quotation marks (usually by double quotes)</t>
+          <t>T*******Attributes values should be e********* in quotation marks (usually by double quotes)</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -820,7 +888,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>Tag Attributes values should be enclosed in ***** marks (usually by double quotes)</t>
+          <t>Tag Attributes values should be enclosed in ***************** marks (usually by double quotes)</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -848,7 +916,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Tag Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
+          <t>T****Attributes values should be enclosed in quotation ***** (usually by double quotes)</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -904,7 +972,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>Tag Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
+          <t>T*****Attributes values should be enclosed in quotation marks (usually by double q*****)</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -932,7 +1000,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>Tag Attribute value with double quotes should be e***** in single quotes</t>
+          <t>T*******Attribute value with double quotes should be e********* in single quotes</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -960,7 +1028,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>Tag Attribute value with double quotes should be enclosed in s***** quotes</t>
+          <t>T*****Attribute value with double quotes should be enclosed in s***** quotes</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -988,7 +1056,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>Tag Attribute value with double quotes should be enclosed in single q*****</t>
+          <t>T*****Attribute value with double quotes should be enclosed in single q*****</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1016,7 +1084,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>G***** Tag Attributes can be used in most elements (ex: class, draggable)</t>
+          <t>G******* Tag Attributes can be used in most elements (ex: class, draggable)</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1044,7 +1112,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Global Tag Attributes can be u***** in most elements (ex: class, draggable)</t>
+          <t>Global Tag Attributes can be u*** in most elements (ex: class, draggable)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1072,7 +1140,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Global Tag Attributes can be used in m***** elements (ex: class, draggable)</t>
+          <t>Global Tag Attributes can be used in m*** elements (ex: class, draggable)</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
